--- a/WIP/Users/LucPT/ITTestCase_Admin_10.08.2015.xlsx
+++ b/WIP/Users/LucPT/ITTestCase_Admin_10.08.2015.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$8:$H$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -40,62 +40,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Viết hoa
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Display message là được rồi, không cần popup
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Back to Test Report</t>
   </si>
@@ -176,18 +126,6 @@
 2. Click an user name in reported table</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Click Delete
-2. Enters message in text box
-3. Click Delete or press Enter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Click Delete
-2. Enters message in text box
-3. Click cancel
-</t>
-  </si>
-  <si>
     <t>Check "Login" button</t>
   </si>
   <si>
@@ -298,9 +236,6 @@
   </si>
   <si>
     <t>When admin Reviews post</t>
-  </si>
-  <si>
-    <t>When admin deletes user post</t>
   </si>
   <si>
     <t>When admin reply question</t>
@@ -333,19 +268,6 @@
 4. Click "Cancel"</t>
   </si>
   <si>
-    <t xml:space="preserve">1. click Reply link
-2. click Answer
-3. Input into text box
-4. Click Cancel
-</t>
-  </si>
-  <si>
-    <t>1. click Reply link
-2. click Answer
-3. Input into text box
-4. Click Reply button</t>
-  </si>
-  <si>
     <t>Warn user module</t>
   </si>
   <si>
@@ -378,22 +300,6 @@
     <t>1. A menu is displayed
 2. Message popup "Lock this user?" is displayed.
 3. Closes popup.</t>
-  </si>
-  <si>
-    <t>1. Text box popup is displayed
-2. Text in text box is displayed
-3. Popup is closed</t>
-  </si>
-  <si>
-    <t>1. Reply screen is displayed
-2. Text box is displayed
-3. Text in text box is displayed
-4. Text box popup  is closed</t>
-  </si>
-  <si>
-    <t>1. Reply screen is displayed
-2. Text box is displayed
-4. Text box popup  is closed</t>
   </si>
   <si>
     <t xml:space="preserve">1. Click Reply link
@@ -402,31 +308,78 @@
 </t>
   </si>
   <si>
+    <t>1. Reported user list page is displayed
+2. User page is displayed</t>
+  </si>
+  <si>
+    <t>1. Reported User list page is displayed
+2. User page is displayed</t>
+  </si>
+  <si>
+    <t>Lock and hide user's post</t>
+  </si>
+  <si>
+    <t>When admin lock user's post</t>
+  </si>
+  <si>
+    <t>1. Reply screen is displayed
+2. Textbox is displayed
+4. Textbox popup  is closed</t>
+  </si>
+  <si>
+    <t>1. Reply screen is displayed
+2. Textbox is displayed
+3. Text in textbox is displayed
+4. Textbox popup  is closed</t>
+  </si>
+  <si>
+    <t>1. click Reply link
+2. click Answer
+3. Input into textbox
+4. Click Reply button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click Reply link
+2. click Answer
+3. Input into textbox
+4. Click Cancel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click Delete
+2. Enters message in textbox
+3. Click Cancel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click Lock
+2. Enters message in textbox
+3. Click Lock or press Enter
+</t>
+  </si>
+  <si>
     <t>1.A menu is displayed
 2. Message popup is displayed
-3. Text in text box is displayed
+3. Text in textbox is displayed
 4. Popup is closed.</t>
   </si>
   <si>
     <t>1.a menu is displayed
 2. Message popup is displayed
-3. Text in text box is displayed
+3. Text in textbox is displayed
 4. Popup is closed.</t>
   </si>
   <si>
-    <t>1. Reported user list page is displayed
-2. User page is displayed</t>
-  </si>
-  <si>
-    <t>1. Reported User list page is displayed
-2. User page is displayed</t>
+    <t>1. textbox popup is displayed
+2. Text in textbox is displayed
+3. Popup is closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,19 +458,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="163"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1160,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1215,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1242,11 +1182,11 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="9">
-        <f>COUNTIF(F21:F1073,"Pass")</f>
+        <f>COUNTIF(F21:F1074,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="10">
-        <f>COUNTIF(F21:F1073,"Fail")</f>
+        <f>COUNTIF(F21:F1074,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="10">
@@ -1254,11 +1194,11 @@
         <v>13</v>
       </c>
       <c r="D6" s="11">
-        <f>COUNTIF(F$21:F$1073,"N/A")</f>
+        <f>COUNTIF(F$21:F$1074,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="29">
-        <f>COUNTA(A21:A1073)</f>
+        <f>COUNTA(A21:A1074)</f>
         <v>13</v>
       </c>
       <c r="F6" s="29"/>
@@ -1303,17 +1243,17 @@
     </row>
     <row r="10" spans="1:8" s="24" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="17" t="str">
-        <f t="shared" ref="A10:A37" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A10:A38" si="0">IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Admin_login-]</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="21"/>
@@ -1326,13 +1266,13 @@
         <v>[Admin_login-1]</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="21"/>
@@ -1345,13 +1285,13 @@
         <v>[Admin_login-2]</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="21"/>
@@ -1364,13 +1304,13 @@
         <v>[Admin_login-3]</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="21"/>
@@ -1383,13 +1323,13 @@
         <v>[Admin_login-4]</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="21"/>
@@ -1402,13 +1342,13 @@
         <v>[Admin_login-5]</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="21"/>
@@ -1421,13 +1361,13 @@
         <v>[Admin_login-6]</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="21"/>
@@ -1440,13 +1380,13 @@
         <v>[Admin_login-7]</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="21"/>
@@ -1459,13 +1399,13 @@
         <v>[Admin_login-8]</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="21"/>
@@ -1478,13 +1418,13 @@
         <v>[Admin_login-9]</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="21"/>
@@ -1494,7 +1434,7 @@
     <row r="20" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1509,13 +1449,13 @@
         <v>[Admin_login-11]</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
@@ -1528,10 +1468,10 @@
         <v>[Admin_login-12]</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>22</v>
@@ -1544,7 +1484,7 @@
     <row r="23" spans="1:8" ht="23.25" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1559,13 +1499,13 @@
         <v>[Admin_login-14]</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1578,13 +1518,13 @@
         <v>[Admin_login-15]</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1594,7 +1534,7 @@
     <row r="26" spans="1:8" ht="24.75" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1609,13 +1549,13 @@
         <v>[Admin_login-17]</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1628,13 +1568,13 @@
         <v>[Admin_login-18]</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -1644,7 +1584,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -1659,13 +1599,13 @@
         <v>[Admin_login-20]</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -1678,37 +1618,30 @@
         <v>[Admin_login-21]</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
     </row>
-    <row r="32" spans="1:8" ht="51">
-      <c r="A32" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-22]</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+    <row r="32" spans="1:8">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="51">
       <c r="A33" s="21" t="str">
@@ -1716,60 +1649,60 @@
         <v>[Admin_login-23]</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="51">
-      <c r="A35" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>[Admin_login-25]</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:8" ht="76.5">
+    <row r="34" spans="1:8" ht="51">
+      <c r="A34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin_login-24]</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="51">
       <c r="A36" s="21" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-26]</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>77</v>
@@ -1779,27 +1712,46 @@
       <c r="G36" s="18"/>
       <c r="H36" s="20"/>
     </row>
-    <row r="37" spans="1:8" ht="89.25">
+    <row r="37" spans="1:8" ht="76.5">
       <c r="A37" s="21" t="str">
         <f t="shared" si="0"/>
         <v>[Admin_login-27]</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="18"/>
       <c r="H37" s="20"/>
     </row>
+    <row r="38" spans="1:8" ht="89.25">
+      <c r="A38" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>[Admin_login-28]</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="20"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H37"/>
+  <autoFilter ref="A8:H38"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -1808,7 +1760,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F8:F37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F8:F38">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
